--- a/result/real-precision.xlsx
+++ b/result/real-precision.xlsx
@@ -60,15 +60,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bfss:94.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfss:94.3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bfss:95.8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfss:94.8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfss:94.3%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +421,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -479,13 +479,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">

--- a/result/real-precision.xlsx
+++ b/result/real-precision.xlsx
@@ -40,35 +40,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nfcount:93.1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfcount:95.5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfcount:96.8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfcount:97.8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfss:96.9%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfss:94.8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfss:94.3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfss:95.8%</t>
+    <t>bfss:96.9%/0.984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfcount:93.1%/0.948</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfss:95.8%/0.979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfcount:95.5%/0.958</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfss:94.8%/0.973</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfcount:96.8%/0.963</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfcount:97.8%/0.968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfss:94.3%/0.971</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,13 +421,13 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" customWidth="1"/>
   </cols>
@@ -462,30 +462,30 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">

--- a/result/real-precision.xlsx
+++ b/result/real-precision.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>1000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,35 +40,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bfss:96.9%/0.984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfcount:93.1%/0.948</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfss:95.8%/0.979</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfcount:95.5%/0.958</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfss:94.8%/0.973</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfcount:96.8%/0.963</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfcount:97.8%/0.968</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfss:94.3%/0.971</t>
+    <t>nfcount:93.2%/0.965</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfcount:95.3%/0.976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96.6%/0.983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfcount:97.5%/0.987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfcount:93.1%/0.963</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfcount:95.4%/0.976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfcount:96.6%/0.982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfss:0.984/0.992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfss:0.978/0.989</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfss:0.974/0.987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfss:0.972/0.986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfss:0.984/0.992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfss:0.979/0.989</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfss:0.974/0.987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfss:0.972/0.986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfcount:95.3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfcount:97.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfcount:93.2%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,8 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -421,7 +462,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -429,7 +470,7 @@
     <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -462,33 +503,155 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>5</v>
       </c>
